--- a/data/raw/Monument-Import.xlsx
+++ b/data/raw/Monument-Import.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{749C3382-96D9-48D4-ADD8-02F4AE691CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0137B3E9-75F8-4466-9B77-5752FD70C940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21225" yWindow="5460" windowWidth="29055" windowHeight="19140" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
+    <workbookView xWindow="21945" yWindow="1890" windowWidth="27870" windowHeight="17700" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$79</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="503">
   <si>
     <t>BoroughCode</t>
   </si>
@@ -992,6 +995,561 @@
   </si>
   <si>
     <t>Sailors' Snug Harbor, Iron Fence</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>56a57774c60405816fdf8f2b</t>
+  </si>
+  <si>
+    <t>56b6dd63cd15881694403c09</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Westerly granite</t>
+  </si>
+  <si>
+    <t>Bronze, granite</t>
+  </si>
+  <si>
+    <t>Deer Isle granite</t>
+  </si>
+  <si>
+    <t>Granite</t>
+  </si>
+  <si>
+    <t>see memo</t>
+  </si>
+  <si>
+    <t>Barre granite</t>
+  </si>
+  <si>
+    <t>Bronze, Barre granite</t>
+  </si>
+  <si>
+    <t>Bronze, cast stone</t>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>550e56a5610bf1c45d8489a6</t>
+  </si>
+  <si>
+    <t>56c95de862a3debc2b358e89</t>
+  </si>
+  <si>
+    <t>Maine granite</t>
+  </si>
+  <si>
+    <t>Granite and bronze</t>
+  </si>
+  <si>
+    <t>552c748b912913b260eb7669</t>
+  </si>
+  <si>
+    <t>533cddaf5c9596ef08143d5a</t>
+  </si>
+  <si>
+    <t>553c73db083cd88a44265ca8</t>
+  </si>
+  <si>
+    <t>54ffae6a93a2b1e1e52db631</t>
+  </si>
+  <si>
+    <t>55efaadff58614cf075b75c5</t>
+  </si>
+  <si>
+    <t>552ea5d3912913b260eb769f</t>
+  </si>
+  <si>
+    <t>552da921912913b260eb7676</t>
+  </si>
+  <si>
+    <t>533cddaf5c9596ef08143d64</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d68</t>
+  </si>
+  <si>
+    <t>55fa1df6f58614cf075b7697</t>
+  </si>
+  <si>
+    <t>56c0f6026e78364115ed8747</t>
+  </si>
+  <si>
+    <t>56aabab5cd158826d842d761</t>
+  </si>
+  <si>
+    <t>56c118996e78364115ed876d</t>
+  </si>
+  <si>
+    <t>55c5b8cecfb85dbff51368dc</t>
+  </si>
+  <si>
+    <t>56b5972dcd15881700bb2b1f</t>
+  </si>
+  <si>
+    <t>56ca6b5062a3debc2b358ea2</t>
+  </si>
+  <si>
+    <t>56bf870ecd158804e462ece8</t>
+  </si>
+  <si>
+    <t>56b6dd63cd15881694403c0a</t>
+  </si>
+  <si>
+    <t>55c7b011cfb85dbff51368f1</t>
+  </si>
+  <si>
+    <t>56aabab5cd158826d842d765</t>
+  </si>
+  <si>
+    <t>550cd6d3610bf1c45d848950</t>
+  </si>
+  <si>
+    <t>56b6e8c1cd15882f6492b9e8</t>
+  </si>
+  <si>
+    <t>56cfe30962a3debc2b358f57</t>
+  </si>
+  <si>
+    <t>56c27c336e78364115ed8799</t>
+  </si>
+  <si>
+    <t>56c2ae9d6e78364115ed87c9</t>
+  </si>
+  <si>
+    <t>56bff3c3cd1588214c06b385</t>
+  </si>
+  <si>
+    <t>55fb834cf58614cf075b76ae</t>
+  </si>
+  <si>
+    <t>55edc0aef58614cf075b7548</t>
+  </si>
+  <si>
+    <t>53668a995c959622000890ae</t>
+  </si>
+  <si>
+    <t>5523615d610bf1c45d848a50</t>
+  </si>
+  <si>
+    <t>56bf8baacd15882c60c09313</t>
+  </si>
+  <si>
+    <t>56bf870ecd158804e462ece9</t>
+  </si>
+  <si>
+    <t>56bf982ecd158827a80aef25</t>
+  </si>
+  <si>
+    <t>552db3cb912913b260eb768c</t>
+  </si>
+  <si>
+    <t>56c1643a6e78364115ed8782</t>
+  </si>
+  <si>
+    <t>55e91dd6f58614cf075b752c</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d7d</t>
+  </si>
+  <si>
+    <t>56cba59f62a3debc2b358ecc</t>
+  </si>
+  <si>
+    <t>56c2903a6e78364115ed87ae</t>
+  </si>
+  <si>
+    <t>56cbbebe62a3debc2b358ed9</t>
+  </si>
+  <si>
+    <t>56c3f08a6e78364115ed8800</t>
+  </si>
+  <si>
+    <t>56b7b9eccd15882d3ca4a1a7</t>
+  </si>
+  <si>
+    <t>56c687ad62a3debc2b358e49</t>
+  </si>
+  <si>
+    <t>552369f5610bf1c45d848a60</t>
+  </si>
+  <si>
+    <t>56aabab5cd158826d842d768</t>
+  </si>
+  <si>
+    <t>56b560bdcd158825d839fb9b</t>
+  </si>
+  <si>
+    <t>55ede271f58614cf075b755a</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d83</t>
+  </si>
+  <si>
+    <t>56bf6c4bcd15881494a0f179</t>
+  </si>
+  <si>
+    <t>550cda5e610bf1c45d848956</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d84</t>
+  </si>
+  <si>
+    <t>56b6dd63cd15881694403c0b</t>
+  </si>
+  <si>
+    <t>56c116d16e78364115ed8769</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d85</t>
+  </si>
+  <si>
+    <t>5533f50a912913b260eb7716</t>
+  </si>
+  <si>
+    <t>56b41ae4cd15882dc05a16c7</t>
+  </si>
+  <si>
+    <t>550d0e7b610bf1c45d84896b</t>
+  </si>
+  <si>
+    <t>64eaae31fdfdaa1cb7d1ad9f</t>
+  </si>
+  <si>
+    <t>54f7e9f95c95968fe4487999</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d8c</t>
+  </si>
+  <si>
+    <t>5500ffe393a2b1e1e52db674</t>
+  </si>
+  <si>
+    <t>56bf982ecd158827a80aef26</t>
+  </si>
+  <si>
+    <t>56b68230cd15882c40f88b13</t>
+  </si>
+  <si>
+    <t>54ff9d0393a2b1e1e52db629</t>
+  </si>
+  <si>
+    <t>56b6dd63cd15881694403c0c</t>
+  </si>
+  <si>
+    <t>53668a995c959622000890b2</t>
+  </si>
+  <si>
+    <t>56ac53bccd15883f548f6f90</t>
+  </si>
+  <si>
+    <t>56bf7409cd158820849be08a</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dc9</t>
+  </si>
+  <si>
+    <t>53668a995c959622000890b3</t>
+  </si>
+  <si>
+    <t>nickel bronze</t>
+  </si>
+  <si>
+    <t>bronze, Barre granite--polished</t>
+  </si>
+  <si>
+    <t>Bronze, Westerly granite</t>
+  </si>
+  <si>
+    <t>Boulders and concrete</t>
+  </si>
+  <si>
+    <t>figure--Westerly granite; pedestal--Barre light granite</t>
+  </si>
+  <si>
+    <t>north adams marble</t>
+  </si>
+  <si>
+    <t>Figure--bronze; Tablet--slate; Natural boulder--Manhattan schist</t>
+  </si>
+  <si>
+    <t>Figures--bronze, Lower basin--blue stone; Pool--Westerly granite (polished)</t>
+  </si>
+  <si>
+    <t>Georgia pink marble</t>
+  </si>
+  <si>
+    <t>Column---Quincy granite; Plaque---bronze</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>Bronze, Tiger-stripe granite boulder</t>
+  </si>
+  <si>
+    <t>Fieldstone conglomerate, bronze</t>
+  </si>
+  <si>
+    <t>Flagstaff--iron; Sleeve--bronze; Pedestal--Deer Isle granite</t>
+  </si>
+  <si>
+    <t>Bronze, granite,</t>
+  </si>
+  <si>
+    <t>Bronze, North Jay granite</t>
+  </si>
+  <si>
+    <t>Stainless steel, cut glass, fiber-optic lighting</t>
+  </si>
+  <si>
+    <t>Concrete, bronze</t>
+  </si>
+  <si>
+    <t>Marble</t>
+  </si>
+  <si>
+    <t>Precast, reinforced concrete</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Figure--bronze; pedestal--concrete faced with variegated green Eastern Taiwan marble; terrace and bollards--variegated Eastern Taiwan green marble</t>
+  </si>
+  <si>
+    <t>Concrete, granite, bronze</t>
+  </si>
+  <si>
+    <t>bronze granite and metal</t>
+  </si>
+  <si>
+    <t>Pennsylvania black granite, bronze</t>
+  </si>
+  <si>
+    <t>Bronze, natural granite boulder</t>
+  </si>
+  <si>
+    <t>Bronze, Quincy granite</t>
+  </si>
+  <si>
+    <t>Bronze, Sailsbury pnk grn (hone fin</t>
+  </si>
+  <si>
+    <t>Animals and bell--bronze; Grillwork--iron; Gateway--brick and limestone</t>
+  </si>
+  <si>
+    <t>Nickel bronze</t>
+  </si>
+  <si>
+    <t>Figure, pedestal decorations, plaque--bronze; Pedestal-- Stony Creek granite (polished)</t>
+  </si>
+  <si>
+    <t>Stele and base--granite; eagle and plaques--bronze</t>
+  </si>
+  <si>
+    <t>stucco substrate and commercial exterior latex paint</t>
+  </si>
+  <si>
+    <t>Bronze, white Vermont marble</t>
+  </si>
+  <si>
+    <t>Bronze; North Jay, Maine granite</t>
+  </si>
+  <si>
+    <t>Bronze, red granite, aggregate</t>
+  </si>
+  <si>
+    <t>Brownstone</t>
+  </si>
+  <si>
+    <t>Welded hot-rolled steel (painted black)</t>
+  </si>
+  <si>
+    <t>Bronze, polished walnut</t>
+  </si>
+  <si>
+    <t>Fieldstone monument with bronze tablet</t>
+  </si>
+  <si>
+    <t>Obelisk ---Syone granite; Block---Egyptian limestone; Crabs, plaques---bronze.</t>
+  </si>
+  <si>
+    <t>Tree trunk figure--stainless steel (polished), globe---stainless steel, brass, bronze</t>
+  </si>
+  <si>
+    <t>6'6" high</t>
+  </si>
+  <si>
+    <t>Total H: 15'5" W: 7'10" D: 7'10"</t>
+  </si>
+  <si>
+    <t>17'6"h x 3'3"w x 4'd</t>
+  </si>
+  <si>
+    <t>Bust H: 4'3"; overall H: 13' W: 6'10" D: 6'</t>
+  </si>
+  <si>
+    <t>figure h 7'10"; pedestal h 4' x w 3'7" x d 5'7"</t>
+  </si>
+  <si>
+    <t>Figure W: 4'6" D: 2'6";  tablet: H: 2'6"¼" W: 5'; Total H: 9'</t>
+  </si>
+  <si>
+    <t>H: 25'; Diameter of lower basin 15'; Diameter of pool 96'</t>
+  </si>
+  <si>
+    <t>H: 32'2"; Pedestal W: 9'6" D: 9'6"; Plaque diameter 20" (approximate)</t>
+  </si>
+  <si>
+    <t>H: 18' W: 170'</t>
+  </si>
+  <si>
+    <t>h 4'7" x w 2'10"</t>
+  </si>
+  <si>
+    <t>Tablet H: 17"¾" W: 12"; Plinth H: 11" W: 22" D: 20"</t>
+  </si>
+  <si>
+    <t>H: 24" W: 18"</t>
+  </si>
+  <si>
+    <t>Tablets H: 5 1/2" W: 8 1/2"; Markers H: 11" W: 14" D: 9"</t>
+  </si>
+  <si>
+    <t>Total H: 6'6" W: 4' D: 4'; Plaque H: 1'6" W: 2'</t>
+  </si>
+  <si>
+    <t>Sleeve H: 4'11" W: 3'2" D: 3'2"; Pedestal H: 6'1" W: 7'6" D: 7'6"</t>
+  </si>
+  <si>
+    <t>H: 15 "¼" W: 24 "¼"</t>
+  </si>
+  <si>
+    <t>H: 12' W: 4'8" D: 4'8"</t>
+  </si>
+  <si>
+    <t>H: 5" W: 12"</t>
+  </si>
+  <si>
+    <t>H: 21'6" (approx.)</t>
+  </si>
+  <si>
+    <t>Stele H: 76" W: 31" D: 20"; Plaque H: 22.5" W: 30"</t>
+  </si>
+  <si>
+    <t>3'3"h x 1'11"w</t>
+  </si>
+  <si>
+    <t>Plaque H: 30" W: 60"</t>
+  </si>
+  <si>
+    <t>H: 17' W: 19' D: 3' 6"</t>
+  </si>
+  <si>
+    <t>H: 10" W: 30" D:18", 550 lbs.</t>
+  </si>
+  <si>
+    <t>H: 1'2" W: 1'</t>
+  </si>
+  <si>
+    <t>figure h 8' x diameter 3'8"; plinth h 6"½"; pedestal h 8' x w 10' x d 10'; total h 16' (approximate)</t>
+  </si>
+  <si>
+    <t>H: 12'6" W: 5' D: 5'</t>
+  </si>
+  <si>
+    <t>Coping H:11" W: 2'; Oval Diameter: 1'8"; Bronze H: 1'2" Diameter: 10"</t>
+  </si>
+  <si>
+    <t>Plinth H: 1'2" L: 4'4" W: 2'10"; Plaque L: 3'9" W: 2'3" (approximate)</t>
+  </si>
+  <si>
+    <t>H: 8 "½" W: 2'11 "½" D: 8'10"</t>
+  </si>
+  <si>
+    <t>H: 16" W: 21"</t>
+  </si>
+  <si>
+    <t>H: 14" W: 24 "½"</t>
+  </si>
+  <si>
+    <t>H: 4' W: 2'5"</t>
+  </si>
+  <si>
+    <t>H: 6'6"</t>
+  </si>
+  <si>
+    <t>H: 1'8" W: 1'6"; Boulder H: 40" W: 40"</t>
+  </si>
+  <si>
+    <t>H: 2'4"</t>
+  </si>
+  <si>
+    <t>Figure H:14'; Pedestal H: 20'; Figure weighs 6 tons; Pedestal weighs 125 tons</t>
+  </si>
+  <si>
+    <t>H: 36 1/4" W: 28 1/4"</t>
+  </si>
+  <si>
+    <t>H: 18'6" W: 23'4" D: 5'9"; Each plaque H: 7" W: 9"</t>
+  </si>
+  <si>
+    <t>Sculpture: H: 7'2" W: 2'10" D: 3'9"; Base: H: 4'2" W: 3'4" D: 4'5" Overall: H: 11'4" W: 3'4" D: 4'5"; Plaque H: 6"  W: 11"</t>
+  </si>
+  <si>
+    <t>Eagle H: 1'10"; Stele H: 5' W: 1'8" D: 1'; Base H: 1' W: 2'8" D: 1'8"; Mounted plaque H: 1'11"¼" W: 1'5"; Total H: 9'7"½"</t>
+  </si>
+  <si>
+    <t>1'4" x 1'9"</t>
+  </si>
+  <si>
+    <t>4 34' x 8' Walls</t>
+  </si>
+  <si>
+    <t>H: 75' W: 21'6" D: 21'6"</t>
+  </si>
+  <si>
+    <t>Figure H: 8'9" W: 3' D: 2'11"; Pedestal approximate H: 4"½' W: 6'9"½"; each pier H: 8' W: 3'9" D: 4'</t>
+  </si>
+  <si>
+    <t>H: 6' (approximate)</t>
+  </si>
+  <si>
+    <t>H: 1'10" W: 1'4"</t>
+  </si>
+  <si>
+    <t>Each plaque H: 1'8" W: 1'9"</t>
+  </si>
+  <si>
+    <t>Ellington figure H: 8'; each caryatid H: 4'; each triform column H: 10'; sculpture total H: 25'; upper plaque H: 5" W: 10"; lower plaque H: 2"¼" W: 7"½"</t>
+  </si>
+  <si>
+    <t>H: 1'10" W: 4'6"</t>
+  </si>
+  <si>
+    <t>H: 9'9" W: 7'2" D: 1'8" (all approximate)</t>
+  </si>
+  <si>
+    <t>Bust H: 21"; Pedestal H: 6'6" W: 1'10" D:1'3"</t>
+  </si>
+  <si>
+    <t>Plaque: 2'5" h; 2'w</t>
+  </si>
+  <si>
+    <t>H: 71' W: 18' D: 18'</t>
+  </si>
+  <si>
+    <t>Trunk H: 12'; Globe H: 12' Diameter: 7'6"</t>
   </si>
 </sst>
 </file>
@@ -1028,20 +1586,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1065,20 +1623,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1088,27 +1676,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4"/>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent4" xfId="2" builtinId="41"/>
-    <cellStyle name="Bad" xfId="4" builtinId="27"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1119,6 +1732,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA414B77-A9E5-4D2D-94BC-0F477EABC592}" name="Table1" displayName="Table1" ref="A1:C79" totalsRowShown="0">
+  <autoFilter ref="A1:C79" xr:uid="{CA414B77-A9E5-4D2D-94BC-0F477EABC592}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7861B252-1B9F-4388-BE08-3DC81B82F179}" name="Dimensions"/>
+    <tableColumn id="2" xr3:uid="{AB21377B-C7AB-4DAF-B174-748ECF4B59CD}" name="Materials" dataCellStyle="Neutral"/>
+    <tableColumn id="3" xr3:uid="{AD2AB81B-924B-446C-916F-3467CD5DF987}" name="Id" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1418,398 +2043,857 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E35AD9-3ED2-499D-983E-C1E37B674B88}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" customWidth="1"/>
-    <col min="8" max="8" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>406</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>322</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" t="s">
-        <v>131</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>407</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" t="s">
-        <v>306</v>
-      </c>
-      <c r="H4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" t="s">
-        <v>308</v>
-      </c>
-      <c r="H5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" t="s">
-        <v>310</v>
-      </c>
-      <c r="H6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" t="s">
-        <v>314</v>
-      </c>
-      <c r="H8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" t="s">
-        <v>316</v>
-      </c>
-      <c r="H9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-    </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4DC45D-6B51-4A37-976F-C08B9F0C20BF}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:F50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,6 +2905,7 @@
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="36.85546875" customWidth="1"/>
+    <col min="8" max="8" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4346,9 +5431,212 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
+      <c r="A98" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G98" t="s">
+        <v>302</v>
+      </c>
+      <c r="H98" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G99" t="s">
+        <v>304</v>
+      </c>
+      <c r="H99" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G100" t="s">
+        <v>306</v>
+      </c>
+      <c r="H100" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" t="s">
+        <v>161</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G101" t="s">
+        <v>308</v>
+      </c>
+      <c r="H101" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" t="s">
+        <v>161</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G102" t="s">
+        <v>310</v>
+      </c>
+      <c r="H102" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" t="s">
+        <v>131</v>
+      </c>
+      <c r="C103" t="s">
+        <v>161</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G103" t="s">
+        <v>312</v>
+      </c>
+      <c r="H103" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" t="s">
+        <v>161</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G104" t="s">
+        <v>314</v>
+      </c>
+      <c r="H104" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" t="s">
+        <v>161</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G105" t="s">
+        <v>316</v>
+      </c>
+      <c r="H105" t="s">
+        <v>317</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/Monument-Import.xlsx
+++ b/data/raw/Monument-Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0137B3E9-75F8-4466-9B77-5752FD70C940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92980E1-07DD-4243-9864-73F5EF435BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21945" yWindow="1890" windowWidth="27870" windowHeight="17700" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
+    <workbookView xWindow="30180" yWindow="2490" windowWidth="24675" windowHeight="17700" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="427">
   <si>
     <t>BoroughCode</t>
   </si>
@@ -1000,563 +1000,335 @@
     <t>Materials</t>
   </si>
   <si>
-    <t>56a57774c60405816fdf8f2b</t>
-  </si>
-  <si>
-    <t>56b6dd63cd15881694403c09</t>
-  </si>
-  <si>
     <t>Bronze</t>
   </si>
   <si>
-    <t>Westerly granite</t>
-  </si>
-  <si>
     <t>Bronze, granite</t>
   </si>
   <si>
+    <t>Bronze, natural boulder</t>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>Bronze, concrete</t>
+  </si>
+  <si>
+    <t>Bronze and granite</t>
+  </si>
+  <si>
+    <t>H: 5'10" W: 2' D: 2'</t>
+  </si>
+  <si>
+    <t>see memo</t>
+  </si>
+  <si>
     <t>Deer Isle granite</t>
   </si>
   <si>
-    <t>Granite</t>
-  </si>
-  <si>
-    <t>see memo</t>
-  </si>
-  <si>
-    <t>Barre granite</t>
-  </si>
-  <si>
-    <t>Bronze, Barre granite</t>
-  </si>
-  <si>
-    <t>Bronze, cast stone</t>
-  </si>
-  <si>
-    <t>bronze</t>
-  </si>
-  <si>
-    <t>Dimensions</t>
-  </si>
-  <si>
-    <t>550e56a5610bf1c45d8489a6</t>
-  </si>
-  <si>
-    <t>56c95de862a3debc2b358e89</t>
-  </si>
-  <si>
-    <t>Maine granite</t>
-  </si>
-  <si>
-    <t>Granite and bronze</t>
-  </si>
-  <si>
-    <t>552c748b912913b260eb7669</t>
-  </si>
-  <si>
-    <t>533cddaf5c9596ef08143d5a</t>
-  </si>
-  <si>
-    <t>553c73db083cd88a44265ca8</t>
-  </si>
-  <si>
-    <t>54ffae6a93a2b1e1e52db631</t>
-  </si>
-  <si>
-    <t>55efaadff58614cf075b75c5</t>
-  </si>
-  <si>
-    <t>552ea5d3912913b260eb769f</t>
-  </si>
-  <si>
-    <t>552da921912913b260eb7676</t>
-  </si>
-  <si>
-    <t>533cddaf5c9596ef08143d64</t>
-  </si>
-  <si>
-    <t>533cddb05c9596ef08143d68</t>
-  </si>
-  <si>
-    <t>55fa1df6f58614cf075b7697</t>
-  </si>
-  <si>
-    <t>56c0f6026e78364115ed8747</t>
-  </si>
-  <si>
-    <t>56aabab5cd158826d842d761</t>
-  </si>
-  <si>
-    <t>56c118996e78364115ed876d</t>
-  </si>
-  <si>
-    <t>55c5b8cecfb85dbff51368dc</t>
-  </si>
-  <si>
-    <t>56b5972dcd15881700bb2b1f</t>
-  </si>
-  <si>
-    <t>56ca6b5062a3debc2b358ea2</t>
-  </si>
-  <si>
-    <t>56bf870ecd158804e462ece8</t>
-  </si>
-  <si>
-    <t>56b6dd63cd15881694403c0a</t>
-  </si>
-  <si>
-    <t>55c7b011cfb85dbff51368f1</t>
-  </si>
-  <si>
-    <t>56aabab5cd158826d842d765</t>
-  </si>
-  <si>
-    <t>550cd6d3610bf1c45d848950</t>
-  </si>
-  <si>
-    <t>56b6e8c1cd15882f6492b9e8</t>
-  </si>
-  <si>
-    <t>56cfe30962a3debc2b358f57</t>
-  </si>
-  <si>
-    <t>56c27c336e78364115ed8799</t>
-  </si>
-  <si>
-    <t>56c2ae9d6e78364115ed87c9</t>
-  </si>
-  <si>
-    <t>56bff3c3cd1588214c06b385</t>
-  </si>
-  <si>
-    <t>55fb834cf58614cf075b76ae</t>
-  </si>
-  <si>
-    <t>55edc0aef58614cf075b7548</t>
-  </si>
-  <si>
-    <t>53668a995c959622000890ae</t>
-  </si>
-  <si>
-    <t>5523615d610bf1c45d848a50</t>
-  </si>
-  <si>
-    <t>56bf8baacd15882c60c09313</t>
-  </si>
-  <si>
-    <t>56bf870ecd158804e462ece9</t>
-  </si>
-  <si>
-    <t>56bf982ecd158827a80aef25</t>
-  </si>
-  <si>
-    <t>552db3cb912913b260eb768c</t>
-  </si>
-  <si>
-    <t>56c1643a6e78364115ed8782</t>
-  </si>
-  <si>
-    <t>55e91dd6f58614cf075b752c</t>
-  </si>
-  <si>
-    <t>533cddb05c9596ef08143d7d</t>
-  </si>
-  <si>
-    <t>56cba59f62a3debc2b358ecc</t>
-  </si>
-  <si>
-    <t>56c2903a6e78364115ed87ae</t>
-  </si>
-  <si>
-    <t>56cbbebe62a3debc2b358ed9</t>
-  </si>
-  <si>
-    <t>56c3f08a6e78364115ed8800</t>
-  </si>
-  <si>
-    <t>56b7b9eccd15882d3ca4a1a7</t>
-  </si>
-  <si>
-    <t>56c687ad62a3debc2b358e49</t>
-  </si>
-  <si>
-    <t>552369f5610bf1c45d848a60</t>
-  </si>
-  <si>
-    <t>56aabab5cd158826d842d768</t>
-  </si>
-  <si>
-    <t>56b560bdcd158825d839fb9b</t>
-  </si>
-  <si>
-    <t>55ede271f58614cf075b755a</t>
-  </si>
-  <si>
-    <t>533cddb05c9596ef08143d83</t>
-  </si>
-  <si>
-    <t>56bf6c4bcd15881494a0f179</t>
-  </si>
-  <si>
-    <t>550cda5e610bf1c45d848956</t>
-  </si>
-  <si>
-    <t>533cddb05c9596ef08143d84</t>
-  </si>
-  <si>
-    <t>56b6dd63cd15881694403c0b</t>
-  </si>
-  <si>
-    <t>56c116d16e78364115ed8769</t>
-  </si>
-  <si>
-    <t>533cddb05c9596ef08143d85</t>
-  </si>
-  <si>
-    <t>5533f50a912913b260eb7716</t>
-  </si>
-  <si>
-    <t>56b41ae4cd15882dc05a16c7</t>
-  </si>
-  <si>
-    <t>550d0e7b610bf1c45d84896b</t>
-  </si>
-  <si>
-    <t>64eaae31fdfdaa1cb7d1ad9f</t>
-  </si>
-  <si>
-    <t>54f7e9f95c95968fe4487999</t>
-  </si>
-  <si>
-    <t>533cddb05c9596ef08143d8c</t>
-  </si>
-  <si>
-    <t>5500ffe393a2b1e1e52db674</t>
-  </si>
-  <si>
-    <t>56bf982ecd158827a80aef26</t>
-  </si>
-  <si>
-    <t>56b68230cd15882c40f88b13</t>
-  </si>
-  <si>
-    <t>54ff9d0393a2b1e1e52db629</t>
-  </si>
-  <si>
-    <t>56b6dd63cd15881694403c0c</t>
-  </si>
-  <si>
-    <t>53668a995c959622000890b2</t>
-  </si>
-  <si>
-    <t>56ac53bccd15883f548f6f90</t>
-  </si>
-  <si>
-    <t>56bf7409cd158820849be08a</t>
-  </si>
-  <si>
-    <t>533cddb25c9596ef08143dc9</t>
-  </si>
-  <si>
-    <t>53668a995c959622000890b3</t>
-  </si>
-  <si>
-    <t>nickel bronze</t>
-  </si>
-  <si>
-    <t>bronze, Barre granite--polished</t>
-  </si>
-  <si>
-    <t>Bronze, Westerly granite</t>
-  </si>
-  <si>
-    <t>Boulders and concrete</t>
-  </si>
-  <si>
-    <t>figure--Westerly granite; pedestal--Barre light granite</t>
-  </si>
-  <si>
-    <t>north adams marble</t>
-  </si>
-  <si>
-    <t>Figure--bronze; Tablet--slate; Natural boulder--Manhattan schist</t>
-  </si>
-  <si>
-    <t>Figures--bronze, Lower basin--blue stone; Pool--Westerly granite (polished)</t>
-  </si>
-  <si>
-    <t>Georgia pink marble</t>
-  </si>
-  <si>
-    <t>Column---Quincy granite; Plaque---bronze</t>
+    <t>indiana limestone</t>
+  </si>
+  <si>
+    <t>Milford pink granite</t>
+  </si>
+  <si>
+    <t>550ddaa8610bf1c45d848997</t>
+  </si>
+  <si>
+    <t>56b6f541cd15882254355aae</t>
+  </si>
+  <si>
+    <t>56b5972dcd15881700bb2b21</t>
+  </si>
+  <si>
+    <t>56bf870ecd158804e462eced</t>
+  </si>
+  <si>
+    <t>53668a9a5c959622000890c7</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143de7</t>
+  </si>
+  <si>
+    <t>550632b193a2b1e1e52db6c1</t>
+  </si>
+  <si>
+    <t>56c0008bcd15882fe0c9864e</t>
+  </si>
+  <si>
+    <t>56c284126e78364115ed87a1</t>
+  </si>
+  <si>
+    <t>56aabab5cd158826d842d773</t>
+  </si>
+  <si>
+    <t>55efca10f58614cf075b75d5</t>
+  </si>
+  <si>
+    <t>56c6a32762a3debc2b358e69</t>
+  </si>
+  <si>
+    <t>56b40b98cd158811a84fceec</t>
+  </si>
+  <si>
+    <t>550cf980610bf1c45d848963</t>
+  </si>
+  <si>
+    <t>56b6e8c1cd15882f6492b9e9</t>
+  </si>
+  <si>
+    <t>56cd249e62a3debc2b358efb</t>
+  </si>
+  <si>
+    <t>56cfce4a62a3debc2b358f3a</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dde</t>
+  </si>
+  <si>
+    <t>56c298b76e78364115ed87ba</t>
+  </si>
+  <si>
+    <t>56bfd34fcd15882f9c38cccd</t>
+  </si>
+  <si>
+    <t>56d68cd762a3debc2b358f87</t>
+  </si>
+  <si>
+    <t>5528b75b912913b260eb7605</t>
+  </si>
+  <si>
+    <t>56aabab5cd158826d842d784</t>
+  </si>
+  <si>
+    <t>56c277686e78364115ed8790</t>
+  </si>
+  <si>
+    <t>55236623610bf1c45d848a5a</t>
+  </si>
+  <si>
+    <t>54f7e2b193a2b1e1e52db53d</t>
+  </si>
+  <si>
+    <t>56bf6c4bcd15881494a0f17e</t>
+  </si>
+  <si>
+    <t>55f246f3f58614cf075b75e6</t>
+  </si>
+  <si>
+    <t>56bfcc5acd15882db4ad1271</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143dfc</t>
+  </si>
+  <si>
+    <t>56aabab5cd158826d842d782</t>
+  </si>
+  <si>
+    <t>56b68230cd15882c40f88b19</t>
+  </si>
+  <si>
+    <t>55e65b18f58614cf075b74f0</t>
+  </si>
+  <si>
+    <t>550643e193a2b1e1e52db6cd</t>
+  </si>
+  <si>
+    <t>552db730912913b260eb7695</t>
+  </si>
+  <si>
+    <t>H: 8" W: 12"¾"</t>
+  </si>
+  <si>
+    <t>2'8 "½"h x 2' 8 "½"w</t>
+  </si>
+  <si>
+    <t>18' 5" H,</t>
+  </si>
+  <si>
+    <t>Plaque H: 14" W: 9"</t>
+  </si>
+  <si>
+    <t>H: 13' L: 7'10" W: 5'6"</t>
+  </si>
+  <si>
+    <t>H: 8'8"  Diameter: 10'9"</t>
+  </si>
+  <si>
+    <t>H: 15'; Weight: 1,320 pounds</t>
+  </si>
+  <si>
+    <t>H: 27" W: 38"</t>
+  </si>
+  <si>
+    <t>H: 7'8" W: 17'4" D: 10'3"</t>
+  </si>
+  <si>
+    <t>48"h x 36"w x "½"d</t>
+  </si>
+  <si>
+    <t>H: 7'6" W: 60" D: 55"</t>
+  </si>
+  <si>
+    <t>H: 12" W: 18"</t>
+  </si>
+  <si>
+    <t>H: 9" W: 13"</t>
+  </si>
+  <si>
+    <t>H: 15' W: 6' D:6'</t>
+  </si>
+  <si>
+    <t>H: 5'6"</t>
+  </si>
+  <si>
+    <t>H: 2' W: 2'9"</t>
+  </si>
+  <si>
+    <t>Column H: 12' Diameter 19" - 26"; Capital H: 29" W: 29" D: 22 1/2"; Globe Diameter 24"</t>
+  </si>
+  <si>
+    <t>H: 14'11" W: 10'4" D: 10'4"</t>
+  </si>
+  <si>
+    <t>Tablet H: 18" W: 22"; Boulder H: 4' W: 3' D: 3'</t>
+  </si>
+  <si>
+    <t>Each H: 10'  W: 20'</t>
+  </si>
+  <si>
+    <t>Plinth H: 1' W: 6' D: 2'10"; Stele H: 5'7"½" W: 4' D: 1'6"; Plaque H: 2'6" W: 2'9"½"</t>
+  </si>
+  <si>
+    <t>20'h x 40"w x 20"d</t>
+  </si>
+  <si>
+    <t>H: 23" W: 36 "½" D: "½"</t>
+  </si>
+  <si>
+    <t>Figure h 6'4" X w 2'5"; Stele h 10'  X  w 8' X  d 2'7"; each tablet  h 4'9" X  w 1'3"</t>
+  </si>
+  <si>
+    <t>Armchair H: 4'5" W: 2'5" D: 2'6"; Boulder H: 4' W: 6'8" L: 8'8"</t>
+  </si>
+  <si>
+    <t>12'h x 9 "¼"w x 13"diam (pole</t>
+  </si>
+  <si>
+    <t>H: 2'9" W: 1'11" D: 1'11"</t>
+  </si>
+  <si>
+    <t>Figure H: 6'; Base H: 7'6" W: 4' D: 7'6"</t>
+  </si>
+  <si>
+    <t>Figure H: 6'7"; Pedestal H: 6' W: 5'10" D: 5'10"; Plaques H: 1'8" W: 2'6"</t>
+  </si>
+  <si>
+    <t>Tablet H: 2' W: 1'2"; Boulder H: 5'8" W: 4'6"</t>
+  </si>
+  <si>
+    <t>Tablet H: 2'2" W: 3'9" D: 1'1"; Base Diameter" 9'</t>
+  </si>
+  <si>
+    <t>H: 3'7" W: 27'3" D:16'4"</t>
+  </si>
+  <si>
+    <t>H: 16' W: 6'6" D: 6'6"</t>
+  </si>
+  <si>
+    <t>H: 4"½' W: 4"½' L: 12'</t>
+  </si>
+  <si>
+    <t>H: 13' W: 20'8" D: 3'10"</t>
+  </si>
+  <si>
+    <t>H: 1'1" W: 1'4 "½"</t>
+  </si>
+  <si>
+    <t>Bronze plaque on flagpole</t>
+  </si>
+  <si>
+    <t>Sculpture--cast iron and welded steel (painted)</t>
+  </si>
+  <si>
+    <t>Bronze, Maine granite</t>
+  </si>
+  <si>
+    <t>Swensons pink granite (honed finish)</t>
+  </si>
+  <si>
+    <t>Lamp--cast iron; plaque--aluminum</t>
+  </si>
+  <si>
+    <t>Upper portion--Indiana limestone; Base and basin--Stony Creek granite</t>
+  </si>
+  <si>
+    <t>Concord granite</t>
+  </si>
+  <si>
+    <t>Bronze, polished Quincy granite</t>
+  </si>
+  <si>
+    <t>Colorado black marble and white marble</t>
+  </si>
+  <si>
+    <t>Bronze, steel</t>
+  </si>
+  <si>
+    <t>Granite, bronze, marble</t>
+  </si>
+  <si>
+    <t>Bronze, Quincy granite</t>
   </si>
   <si>
     <t>Paint</t>
   </si>
   <si>
-    <t>Bronze, Tiger-stripe granite boulder</t>
-  </si>
-  <si>
-    <t>Fieldstone conglomerate, bronze</t>
-  </si>
-  <si>
-    <t>Flagstaff--iron; Sleeve--bronze; Pedestal--Deer Isle granite</t>
-  </si>
-  <si>
-    <t>Bronze, granite,</t>
+    <t>Barre granite, bronze</t>
+  </si>
+  <si>
+    <t>Bronze, Stony Creek granite</t>
+  </si>
+  <si>
+    <t>Bronze, Milford pink granite</t>
+  </si>
+  <si>
+    <t>Chair and dictionary--bronze (light blue-green patina); Boulder--Stony Creek, Connecticut pink granite</t>
+  </si>
+  <si>
+    <t>Bronze, wood, granite base</t>
+  </si>
+  <si>
+    <t>maine granite</t>
+  </si>
+  <si>
+    <t>Cast stone</t>
+  </si>
+  <si>
+    <t>Figure--bronze; Base--black Carolina granite</t>
   </si>
   <si>
     <t>Bronze, North Jay granite</t>
   </si>
   <si>
-    <t>Stainless steel, cut glass, fiber-optic lighting</t>
-  </si>
-  <si>
-    <t>Concrete, bronze</t>
-  </si>
-  <si>
-    <t>Marble</t>
-  </si>
-  <si>
-    <t>Precast, reinforced concrete</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>Figure--bronze; pedestal--concrete faced with variegated green Eastern Taiwan marble; terrace and bollards--variegated Eastern Taiwan green marble</t>
-  </si>
-  <si>
-    <t>Concrete, granite, bronze</t>
-  </si>
-  <si>
-    <t>bronze granite and metal</t>
-  </si>
-  <si>
-    <t>Pennsylvania black granite, bronze</t>
-  </si>
-  <si>
-    <t>Bronze, natural granite boulder</t>
-  </si>
-  <si>
-    <t>Bronze, Quincy granite</t>
-  </si>
-  <si>
-    <t>Bronze, Sailsbury pnk grn (hone fin</t>
-  </si>
-  <si>
-    <t>Animals and bell--bronze; Grillwork--iron; Gateway--brick and limestone</t>
-  </si>
-  <si>
-    <t>Nickel bronze</t>
-  </si>
-  <si>
-    <t>Figure, pedestal decorations, plaque--bronze; Pedestal-- Stony Creek granite (polished)</t>
-  </si>
-  <si>
-    <t>Stele and base--granite; eagle and plaques--bronze</t>
-  </si>
-  <si>
-    <t>stucco substrate and commercial exterior latex paint</t>
-  </si>
-  <si>
-    <t>Bronze, white Vermont marble</t>
-  </si>
-  <si>
-    <t>Bronze; North Jay, Maine granite</t>
-  </si>
-  <si>
-    <t>Bronze, red granite, aggregate</t>
-  </si>
-  <si>
-    <t>Brownstone</t>
-  </si>
-  <si>
-    <t>Welded hot-rolled steel (painted black)</t>
-  </si>
-  <si>
-    <t>Bronze, polished walnut</t>
-  </si>
-  <si>
-    <t>Fieldstone monument with bronze tablet</t>
-  </si>
-  <si>
-    <t>Obelisk ---Syone granite; Block---Egyptian limestone; Crabs, plaques---bronze.</t>
-  </si>
-  <si>
-    <t>Tree trunk figure--stainless steel (polished), globe---stainless steel, brass, bronze</t>
-  </si>
-  <si>
-    <t>6'6" high</t>
-  </si>
-  <si>
-    <t>Total H: 15'5" W: 7'10" D: 7'10"</t>
-  </si>
-  <si>
-    <t>17'6"h x 3'3"w x 4'd</t>
-  </si>
-  <si>
-    <t>Bust H: 4'3"; overall H: 13' W: 6'10" D: 6'</t>
-  </si>
-  <si>
-    <t>figure h 7'10"; pedestal h 4' x w 3'7" x d 5'7"</t>
-  </si>
-  <si>
-    <t>Figure W: 4'6" D: 2'6";  tablet: H: 2'6"¼" W: 5'; Total H: 9'</t>
-  </si>
-  <si>
-    <t>H: 25'; Diameter of lower basin 15'; Diameter of pool 96'</t>
-  </si>
-  <si>
-    <t>H: 32'2"; Pedestal W: 9'6" D: 9'6"; Plaque diameter 20" (approximate)</t>
-  </si>
-  <si>
-    <t>H: 18' W: 170'</t>
-  </si>
-  <si>
-    <t>h 4'7" x w 2'10"</t>
-  </si>
-  <si>
-    <t>Tablet H: 17"¾" W: 12"; Plinth H: 11" W: 22" D: 20"</t>
-  </si>
-  <si>
-    <t>H: 24" W: 18"</t>
-  </si>
-  <si>
-    <t>Tablets H: 5 1/2" W: 8 1/2"; Markers H: 11" W: 14" D: 9"</t>
-  </si>
-  <si>
-    <t>Total H: 6'6" W: 4' D: 4'; Plaque H: 1'6" W: 2'</t>
-  </si>
-  <si>
-    <t>Sleeve H: 4'11" W: 3'2" D: 3'2"; Pedestal H: 6'1" W: 7'6" D: 7'6"</t>
-  </si>
-  <si>
-    <t>H: 15 "¼" W: 24 "¼"</t>
-  </si>
-  <si>
-    <t>H: 12' W: 4'8" D: 4'8"</t>
-  </si>
-  <si>
-    <t>H: 5" W: 12"</t>
-  </si>
-  <si>
-    <t>H: 21'6" (approx.)</t>
-  </si>
-  <si>
-    <t>Stele H: 76" W: 31" D: 20"; Plaque H: 22.5" W: 30"</t>
-  </si>
-  <si>
-    <t>3'3"h x 1'11"w</t>
-  </si>
-  <si>
-    <t>Plaque H: 30" W: 60"</t>
-  </si>
-  <si>
-    <t>H: 17' W: 19' D: 3' 6"</t>
-  </si>
-  <si>
-    <t>H: 10" W: 30" D:18", 550 lbs.</t>
-  </si>
-  <si>
-    <t>H: 1'2" W: 1'</t>
-  </si>
-  <si>
-    <t>figure h 8' x diameter 3'8"; plinth h 6"½"; pedestal h 8' x w 10' x d 10'; total h 16' (approximate)</t>
-  </si>
-  <si>
-    <t>H: 12'6" W: 5' D: 5'</t>
-  </si>
-  <si>
-    <t>Coping H:11" W: 2'; Oval Diameter: 1'8"; Bronze H: 1'2" Diameter: 10"</t>
-  </si>
-  <si>
-    <t>Plinth H: 1'2" L: 4'4" W: 2'10"; Plaque L: 3'9" W: 2'3" (approximate)</t>
-  </si>
-  <si>
-    <t>H: 8 "½" W: 2'11 "½" D: 8'10"</t>
-  </si>
-  <si>
-    <t>H: 16" W: 21"</t>
-  </si>
-  <si>
-    <t>H: 14" W: 24 "½"</t>
-  </si>
-  <si>
-    <t>H: 4' W: 2'5"</t>
-  </si>
-  <si>
-    <t>H: 6'6"</t>
-  </si>
-  <si>
-    <t>H: 1'8" W: 1'6"; Boulder H: 40" W: 40"</t>
-  </si>
-  <si>
-    <t>H: 2'4"</t>
-  </si>
-  <si>
-    <t>Figure H:14'; Pedestal H: 20'; Figure weighs 6 tons; Pedestal weighs 125 tons</t>
-  </si>
-  <si>
-    <t>H: 36 1/4" W: 28 1/4"</t>
-  </si>
-  <si>
-    <t>H: 18'6" W: 23'4" D: 5'9"; Each plaque H: 7" W: 9"</t>
-  </si>
-  <si>
-    <t>Sculpture: H: 7'2" W: 2'10" D: 3'9"; Base: H: 4'2" W: 3'4" D: 4'5" Overall: H: 11'4" W: 3'4" D: 4'5"; Plaque H: 6"  W: 11"</t>
-  </si>
-  <si>
-    <t>Eagle H: 1'10"; Stele H: 5' W: 1'8" D: 1'; Base H: 1' W: 2'8" D: 1'8"; Mounted plaque H: 1'11"¼" W: 1'5"; Total H: 9'7"½"</t>
-  </si>
-  <si>
-    <t>1'4" x 1'9"</t>
-  </si>
-  <si>
-    <t>4 34' x 8' Walls</t>
-  </si>
-  <si>
-    <t>H: 75' W: 21'6" D: 21'6"</t>
-  </si>
-  <si>
-    <t>Figure H: 8'9" W: 3' D: 2'11"; Pedestal approximate H: 4"½' W: 6'9"½"; each pier H: 8' W: 3'9" D: 4'</t>
-  </si>
-  <si>
-    <t>H: 6' (approximate)</t>
-  </si>
-  <si>
-    <t>H: 1'10" W: 1'4"</t>
-  </si>
-  <si>
-    <t>Each plaque H: 1'8" W: 1'9"</t>
-  </si>
-  <si>
-    <t>Ellington figure H: 8'; each caryatid H: 4'; each triform column H: 10'; sculpture total H: 25'; upper plaque H: 5" W: 10"; lower plaque H: 2"¼" W: 7"½"</t>
-  </si>
-  <si>
-    <t>H: 1'10" W: 4'6"</t>
-  </si>
-  <si>
-    <t>H: 9'9" W: 7'2" D: 1'8" (all approximate)</t>
-  </si>
-  <si>
-    <t>Bust H: 21"; Pedestal H: 6'6" W: 1'10" D:1'3"</t>
-  </si>
-  <si>
-    <t>Plaque: 2'5" h; 2'w</t>
-  </si>
-  <si>
-    <t>H: 71' W: 18' D: 18'</t>
-  </si>
-  <si>
-    <t>Trunk H: 12'; Globe H: 12' Diameter: 7'6"</t>
+    <t>Concord white granite, bronze</t>
+  </si>
+  <si>
+    <t>Cor-ten steel, painted red</t>
+  </si>
+  <si>
+    <t>Bas-relief--Indiana limestone; Plaque--bronze</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1598,8 +1370,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1637,8 +1416,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1670,15 +1454,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -1687,14 +1487,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent4" xfId="2" builtinId="41"/>
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Input" xfId="5" builtinId="20"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1735,12 +1537,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA414B77-A9E5-4D2D-94BC-0F477EABC592}" name="Table1" displayName="Table1" ref="A1:C79" totalsRowShown="0">
-  <autoFilter ref="A1:C79" xr:uid="{CA414B77-A9E5-4D2D-94BC-0F477EABC592}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA414B77-A9E5-4D2D-94BC-0F477EABC592}" name="Table1" displayName="Table1" ref="A1:C46" totalsRowShown="0">
+  <autoFilter ref="A1:C46" xr:uid="{CA414B77-A9E5-4D2D-94BC-0F477EABC592}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7861B252-1B9F-4388-BE08-3DC81B82F179}" name="Dimensions"/>
-    <tableColumn id="2" xr3:uid="{AB21377B-C7AB-4DAF-B174-748ECF4B59CD}" name="Materials" dataCellStyle="Neutral"/>
-    <tableColumn id="3" xr3:uid="{AD2AB81B-924B-446C-916F-3467CD5DF987}" name="Id" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7861B252-1B9F-4388-BE08-3DC81B82F179}" name="Dimensions" dataCellStyle="Neutral"/>
+    <tableColumn id="2" xr3:uid="{AB21377B-C7AB-4DAF-B174-748ECF4B59CD}" name="Materials"/>
+    <tableColumn id="3" xr3:uid="{AD2AB81B-924B-446C-916F-3467CD5DF987}" name="Id" dataDxfId="0" dataCellStyle="Input"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2043,23 +1845,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E35AD9-3ED2-499D-983E-C1E37B674B88}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="88.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>318</v>
@@ -2069,813 +1870,480 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="C9" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C11" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="C12" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+      <c r="C14" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
+      <c r="C17" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9" t="s">
+      <c r="C29" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="C38" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="C39" s="11" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C30" s="10" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="C31" s="10" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C32" s="10" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="C33" s="8" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C34" s="10" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C36" s="10" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="11" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Monument-Import.xlsx
+++ b/data/raw/Monument-Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92980E1-07DD-4243-9864-73F5EF435BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC601EF-7D01-410D-B86C-0CA285A023ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30180" yWindow="2490" windowWidth="24675" windowHeight="17700" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
+    <workbookView xWindow="29910" yWindow="4095" windowWidth="28575" windowHeight="17700" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="368">
   <si>
     <t>BoroughCode</t>
   </si>
@@ -1006,322 +1006,145 @@
     <t>Bronze, granite</t>
   </si>
   <si>
-    <t>Bronze, natural boulder</t>
-  </si>
-  <si>
-    <t>bronze</t>
+    <t>Granite</t>
   </si>
   <si>
     <t>Dimensions</t>
   </si>
   <si>
-    <t>Bronze, concrete</t>
-  </si>
-  <si>
-    <t>Bronze and granite</t>
-  </si>
-  <si>
-    <t>H: 5'10" W: 2' D: 2'</t>
-  </si>
-  <si>
-    <t>see memo</t>
+    <t>Bronze, Barre granite</t>
   </si>
   <si>
     <t>Deer Isle granite</t>
   </si>
   <si>
-    <t>indiana limestone</t>
-  </si>
-  <si>
-    <t>Milford pink granite</t>
-  </si>
-  <si>
-    <t>550ddaa8610bf1c45d848997</t>
-  </si>
-  <si>
-    <t>56b6f541cd15882254355aae</t>
-  </si>
-  <si>
-    <t>56b5972dcd15881700bb2b21</t>
-  </si>
-  <si>
-    <t>56bf870ecd158804e462eced</t>
-  </si>
-  <si>
-    <t>53668a9a5c959622000890c7</t>
-  </si>
-  <si>
-    <t>533cddb35c9596ef08143de7</t>
-  </si>
-  <si>
-    <t>550632b193a2b1e1e52db6c1</t>
-  </si>
-  <si>
-    <t>56c0008bcd15882fe0c9864e</t>
-  </si>
-  <si>
-    <t>56c284126e78364115ed87a1</t>
-  </si>
-  <si>
-    <t>56aabab5cd158826d842d773</t>
-  </si>
-  <si>
-    <t>55efca10f58614cf075b75d5</t>
-  </si>
-  <si>
-    <t>56c6a32762a3debc2b358e69</t>
-  </si>
-  <si>
-    <t>56b40b98cd158811a84fceec</t>
-  </si>
-  <si>
-    <t>550cf980610bf1c45d848963</t>
-  </si>
-  <si>
-    <t>56b6e8c1cd15882f6492b9e9</t>
-  </si>
-  <si>
-    <t>56cd249e62a3debc2b358efb</t>
-  </si>
-  <si>
-    <t>56cfce4a62a3debc2b358f3a</t>
-  </si>
-  <si>
-    <t>533cddb25c9596ef08143dde</t>
-  </si>
-  <si>
-    <t>56c298b76e78364115ed87ba</t>
-  </si>
-  <si>
-    <t>56bfd34fcd15882f9c38cccd</t>
-  </si>
-  <si>
-    <t>56d68cd762a3debc2b358f87</t>
-  </si>
-  <si>
-    <t>5528b75b912913b260eb7605</t>
-  </si>
-  <si>
-    <t>56aabab5cd158826d842d784</t>
-  </si>
-  <si>
-    <t>56c277686e78364115ed8790</t>
-  </si>
-  <si>
-    <t>55236623610bf1c45d848a5a</t>
-  </si>
-  <si>
-    <t>54f7e2b193a2b1e1e52db53d</t>
-  </si>
-  <si>
-    <t>56bf6c4bcd15881494a0f17e</t>
-  </si>
-  <si>
-    <t>55f246f3f58614cf075b75e6</t>
-  </si>
-  <si>
-    <t>56bfcc5acd15882db4ad1271</t>
-  </si>
-  <si>
-    <t>533cddb35c9596ef08143dfc</t>
-  </si>
-  <si>
-    <t>56aabab5cd158826d842d782</t>
-  </si>
-  <si>
-    <t>56b68230cd15882c40f88b19</t>
-  </si>
-  <si>
-    <t>55e65b18f58614cf075b74f0</t>
-  </si>
-  <si>
-    <t>550643e193a2b1e1e52db6cd</t>
-  </si>
-  <si>
-    <t>552db730912913b260eb7695</t>
-  </si>
-  <si>
-    <t>H: 8" W: 12"¾"</t>
-  </si>
-  <si>
-    <t>2'8 "½"h x 2' 8 "½"w</t>
-  </si>
-  <si>
-    <t>18' 5" H,</t>
-  </si>
-  <si>
-    <t>Plaque H: 14" W: 9"</t>
-  </si>
-  <si>
-    <t>H: 13' L: 7'10" W: 5'6"</t>
-  </si>
-  <si>
-    <t>H: 8'8"  Diameter: 10'9"</t>
-  </si>
-  <si>
-    <t>H: 15'; Weight: 1,320 pounds</t>
-  </si>
-  <si>
-    <t>H: 27" W: 38"</t>
-  </si>
-  <si>
-    <t>H: 7'8" W: 17'4" D: 10'3"</t>
-  </si>
-  <si>
-    <t>48"h x 36"w x "½"d</t>
-  </si>
-  <si>
-    <t>H: 7'6" W: 60" D: 55"</t>
-  </si>
-  <si>
-    <t>H: 12" W: 18"</t>
-  </si>
-  <si>
-    <t>H: 9" W: 13"</t>
-  </si>
-  <si>
-    <t>H: 15' W: 6' D:6'</t>
-  </si>
-  <si>
-    <t>H: 5'6"</t>
-  </si>
-  <si>
-    <t>H: 2' W: 2'9"</t>
-  </si>
-  <si>
-    <t>Column H: 12' Diameter 19" - 26"; Capital H: 29" W: 29" D: 22 1/2"; Globe Diameter 24"</t>
-  </si>
-  <si>
-    <t>H: 14'11" W: 10'4" D: 10'4"</t>
-  </si>
-  <si>
-    <t>Tablet H: 18" W: 22"; Boulder H: 4' W: 3' D: 3'</t>
-  </si>
-  <si>
-    <t>Each H: 10'  W: 20'</t>
-  </si>
-  <si>
-    <t>Plinth H: 1' W: 6' D: 2'10"; Stele H: 5'7"½" W: 4' D: 1'6"; Plaque H: 2'6" W: 2'9"½"</t>
-  </si>
-  <si>
-    <t>20'h x 40"w x 20"d</t>
-  </si>
-  <si>
-    <t>H: 23" W: 36 "½" D: "½"</t>
-  </si>
-  <si>
-    <t>Figure h 6'4" X w 2'5"; Stele h 10'  X  w 8' X  d 2'7"; each tablet  h 4'9" X  w 1'3"</t>
-  </si>
-  <si>
-    <t>Armchair H: 4'5" W: 2'5" D: 2'6"; Boulder H: 4' W: 6'8" L: 8'8"</t>
-  </si>
-  <si>
-    <t>12'h x 9 "¼"w x 13"diam (pole</t>
-  </si>
-  <si>
-    <t>H: 2'9" W: 1'11" D: 1'11"</t>
-  </si>
-  <si>
-    <t>Figure H: 6'; Base H: 7'6" W: 4' D: 7'6"</t>
-  </si>
-  <si>
-    <t>Figure H: 6'7"; Pedestal H: 6' W: 5'10" D: 5'10"; Plaques H: 1'8" W: 2'6"</t>
-  </si>
-  <si>
-    <t>Tablet H: 2' W: 1'2"; Boulder H: 5'8" W: 4'6"</t>
-  </si>
-  <si>
-    <t>Tablet H: 2'2" W: 3'9" D: 1'1"; Base Diameter" 9'</t>
-  </si>
-  <si>
-    <t>H: 3'7" W: 27'3" D:16'4"</t>
-  </si>
-  <si>
-    <t>H: 16' W: 6'6" D: 6'6"</t>
-  </si>
-  <si>
-    <t>H: 4"½' W: 4"½' L: 12'</t>
-  </si>
-  <si>
-    <t>H: 13' W: 20'8" D: 3'10"</t>
-  </si>
-  <si>
-    <t>H: 1'1" W: 1'4 "½"</t>
-  </si>
-  <si>
-    <t>Bronze plaque on flagpole</t>
-  </si>
-  <si>
-    <t>Sculpture--cast iron and welded steel (painted)</t>
-  </si>
-  <si>
-    <t>Bronze, Maine granite</t>
-  </si>
-  <si>
-    <t>Swensons pink granite (honed finish)</t>
-  </si>
-  <si>
-    <t>Lamp--cast iron; plaque--aluminum</t>
-  </si>
-  <si>
-    <t>Upper portion--Indiana limestone; Base and basin--Stony Creek granite</t>
-  </si>
-  <si>
-    <t>Concord granite</t>
-  </si>
-  <si>
-    <t>Bronze, polished Quincy granite</t>
-  </si>
-  <si>
-    <t>Colorado black marble and white marble</t>
-  </si>
-  <si>
-    <t>Bronze, steel</t>
-  </si>
-  <si>
-    <t>Granite, bronze, marble</t>
-  </si>
-  <si>
-    <t>Bronze, Quincy granite</t>
-  </si>
-  <si>
-    <t>Paint</t>
-  </si>
-  <si>
-    <t>Barre granite, bronze</t>
-  </si>
-  <si>
     <t>Bronze, Stony Creek granite</t>
   </si>
   <si>
-    <t>Bronze, Milford pink granite</t>
-  </si>
-  <si>
-    <t>Chair and dictionary--bronze (light blue-green patina); Boulder--Stony Creek, Connecticut pink granite</t>
-  </si>
-  <si>
-    <t>Bronze, wood, granite base</t>
-  </si>
-  <si>
-    <t>maine granite</t>
-  </si>
-  <si>
-    <t>Cast stone</t>
-  </si>
-  <si>
-    <t>Figure--bronze; Base--black Carolina granite</t>
-  </si>
-  <si>
-    <t>Bronze, North Jay granite</t>
-  </si>
-  <si>
-    <t>Concord white granite, bronze</t>
-  </si>
-  <si>
-    <t>Cor-ten steel, painted red</t>
-  </si>
-  <si>
-    <t>Bas-relief--Indiana limestone; Plaque--bronze</t>
+    <t>56c3dfaf6e78364115ed87f7</t>
+  </si>
+  <si>
+    <t>56b563c9cd15881fe085adb6</t>
+  </si>
+  <si>
+    <t>56b40b98cd158811a84fceed</t>
+  </si>
+  <si>
+    <t>56b7b9eccd15882d3ca4a1ac</t>
+  </si>
+  <si>
+    <t>56c3dd596e78364115ed87da</t>
+  </si>
+  <si>
+    <t>56aabab5cd158826d842d781</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143df8</t>
+  </si>
+  <si>
+    <t>55edc76bf58614cf075b7552</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143df9</t>
+  </si>
+  <si>
+    <t>56b562c2cd15882620d5aa3b</t>
+  </si>
+  <si>
+    <t>56b562c2cd15882620d5aa3c</t>
+  </si>
+  <si>
+    <t>56b562c2cd15882620d5aa3d</t>
+  </si>
+  <si>
+    <t>5451d289648e7ba700119d68</t>
+  </si>
+  <si>
+    <t>H: 10' W: 6' D: 4'2"</t>
+  </si>
+  <si>
+    <t>H: 1'6" W: 2'</t>
+  </si>
+  <si>
+    <t>Total H: 19' W: 7'6" D: 12'</t>
+  </si>
+  <si>
+    <t>H: 9'6" W: 5' D: 5'</t>
+  </si>
+  <si>
+    <t>Total H: 11'7" W: 4'8" D: 4'3"</t>
+  </si>
+  <si>
+    <t>Bust H: 4'1 "½"</t>
+  </si>
+  <si>
+    <t>Carrara marble</t>
+  </si>
+  <si>
+    <t>Group---bronze; Pedestal---Swedish red granite (polished)</t>
+  </si>
+  <si>
+    <t>Iron, bronze tab, granite coping</t>
+  </si>
+  <si>
+    <t>Stainless steel</t>
+  </si>
+  <si>
+    <t>Cenotaph, fountain, and benches--Quincy yellow granite; plaques--bronze</t>
+  </si>
+  <si>
+    <t>Cenotaph H: 8'10"; fountain diameter 7'</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143de9</t>
+  </si>
+  <si>
+    <t>56bf982ecd158827a80aef2e</t>
+  </si>
+  <si>
+    <t>550d13f2610bf1c45d848977</t>
+  </si>
+  <si>
+    <t>56c0f9b66e78364115ed8754</t>
+  </si>
+  <si>
+    <t>56b6e8c1cd15882f6492b9ec</t>
+  </si>
+  <si>
+    <t>H: 2'7" L: l 5'</t>
+  </si>
+  <si>
+    <t>H: 3'5" W: 1'x3 "½" D: 1'3 "½"</t>
+  </si>
+  <si>
+    <t>Bronze, natural rock</t>
+  </si>
+  <si>
+    <t>Bronze, cast stone</t>
+  </si>
+  <si>
+    <t>54f7e9f95c95968fe4487997</t>
+  </si>
+  <si>
+    <t>55ee3819f58614cf075b7597</t>
+  </si>
+  <si>
+    <t>56bfd34fcd15882f9c38ccce</t>
+  </si>
+  <si>
+    <t>East Dorset Vermont marble (see memo)</t>
+  </si>
+  <si>
+    <t>Bronze; Westerly granite</t>
+  </si>
+  <si>
+    <t>Total h 80' x w 80' x d 50'; archway h 50' x w 35'</t>
+  </si>
+  <si>
+    <t>H: 100' D: 50'</t>
+  </si>
+  <si>
+    <t>Figure H: 10'9"; Pedestal H: 10' W: 3'6" D: 3'6"</t>
   </si>
 </sst>
 </file>
@@ -1358,6 +1181,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1370,15 +1200,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1402,13 +1225,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1416,57 +1238,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1475,55 +1253,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="5"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent4" xfId="2" builtinId="41"/>
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
-    <cellStyle name="Input" xfId="5" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1537,12 +1290,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA414B77-A9E5-4D2D-94BC-0F477EABC592}" name="Table1" displayName="Table1" ref="A1:C46" totalsRowShown="0">
-  <autoFilter ref="A1:C46" xr:uid="{CA414B77-A9E5-4D2D-94BC-0F477EABC592}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA414B77-A9E5-4D2D-94BC-0F477EABC592}" name="Table1" displayName="Table1" ref="A1:C23" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:C23" xr:uid="{CA414B77-A9E5-4D2D-94BC-0F477EABC592}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7861B252-1B9F-4388-BE08-3DC81B82F179}" name="Dimensions" dataCellStyle="Neutral"/>
-    <tableColumn id="2" xr3:uid="{AB21377B-C7AB-4DAF-B174-748ECF4B59CD}" name="Materials"/>
-    <tableColumn id="3" xr3:uid="{AD2AB81B-924B-446C-916F-3467CD5DF987}" name="Id" dataDxfId="0" dataCellStyle="Input"/>
+    <tableColumn id="1" xr3:uid="{7861B252-1B9F-4388-BE08-3DC81B82F179}" name="Dimensions" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{AB21377B-C7AB-4DAF-B174-748ECF4B59CD}" name="Materials" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{AD2AB81B-924B-446C-916F-3467CD5DF987}" name="Id" dataCellStyle="Good"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1845,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E35AD9-3ED2-499D-983E-C1E37B674B88}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,7 +1613,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>318</v>
@@ -1870,480 +1623,219 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>365</v>
+      </c>
+      <c r="B21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>366</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>367</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="B23" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="11" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/Monument-Import.xlsx
+++ b/data/raw/Monument-Import.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\git\NavigatorGPT\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC601EF-7D01-410D-B86C-0CA285A023ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5231A99E-6A08-4D2B-8AF8-FB80D97B93B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29910" yWindow="4095" windowWidth="28575" windowHeight="17700" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
+    <workbookView xWindow="25050" yWindow="4530" windowWidth="28575" windowHeight="17700" xr2:uid="{28F52943-145D-4CF6-80D6-CEE83EFBEA51}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Park" sheetId="5" r:id="rId1"/>
+    <sheet name="Dim-Mat" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dim-Mat'!$C$1:$C$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="667">
   <si>
     <t>BoroughCode</t>
   </si>
@@ -1009,142 +1010,1039 @@
     <t>Granite</t>
   </si>
   <si>
+    <t>Barre granite</t>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
     <t>Dimensions</t>
   </si>
   <si>
-    <t>Bronze, Barre granite</t>
+    <t>550cb335610bf1c45d848945</t>
+  </si>
+  <si>
+    <t>54ff999593a2b1e1e52db621</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143da2</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143dea</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143daf</t>
   </si>
   <si>
     <t>Deer Isle granite</t>
   </si>
   <si>
+    <t>533cddb15c9596ef08143db3</t>
+  </si>
+  <si>
+    <t>Westerly granite</t>
+  </si>
+  <si>
+    <t>550ddaa8610bf1c45d848997</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143de7</t>
+  </si>
+  <si>
+    <t>550632b193a2b1e1e52db6c1</t>
+  </si>
+  <si>
+    <t>550cf980610bf1c45d848963</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dde</t>
+  </si>
+  <si>
+    <t>54f7e2b193a2b1e1e52db53d</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143dfc</t>
+  </si>
+  <si>
+    <t>550643e193a2b1e1e52db6cd</t>
+  </si>
+  <si>
+    <t>552db730912913b260eb7695</t>
+  </si>
+  <si>
     <t>Bronze, Stony Creek granite</t>
   </si>
   <si>
-    <t>56c3dfaf6e78364115ed87f7</t>
-  </si>
-  <si>
-    <t>56b563c9cd15881fe085adb6</t>
-  </si>
-  <si>
-    <t>56b40b98cd158811a84fceed</t>
-  </si>
-  <si>
-    <t>56b7b9eccd15882d3ca4a1ac</t>
-  </si>
-  <si>
-    <t>56c3dd596e78364115ed87da</t>
-  </si>
-  <si>
-    <t>56aabab5cd158826d842d781</t>
+    <t>maine granite</t>
+  </si>
+  <si>
+    <t>5506417693a2b1e1e52db6ca</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dc3</t>
+  </si>
+  <si>
+    <t>5506366693a2b1e1e52db6c5</t>
+  </si>
+  <si>
+    <t>55063f0393a2b1e1e52db6c8</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143df1</t>
+  </si>
+  <si>
+    <t>56c50afa62a3debc2b358e39</t>
+  </si>
+  <si>
+    <t>56c50a2562a3debc2b358e38</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143ddd</t>
+  </si>
+  <si>
+    <t>550d1dd2610bf1c45d84897f</t>
   </si>
   <si>
     <t>533cddb35c9596ef08143df8</t>
   </si>
   <si>
-    <t>55edc76bf58614cf075b7552</t>
-  </si>
-  <si>
     <t>533cddb35c9596ef08143df9</t>
   </si>
   <si>
-    <t>56b562c2cd15882620d5aa3b</t>
-  </si>
-  <si>
-    <t>56b562c2cd15882620d5aa3c</t>
-  </si>
-  <si>
-    <t>56b562c2cd15882620d5aa3d</t>
-  </si>
-  <si>
-    <t>5451d289648e7ba700119d68</t>
-  </si>
-  <si>
-    <t>H: 10' W: 6' D: 4'2"</t>
-  </si>
-  <si>
-    <t>H: 1'6" W: 2'</t>
-  </si>
-  <si>
-    <t>Total H: 19' W: 7'6" D: 12'</t>
-  </si>
-  <si>
-    <t>H: 9'6" W: 5' D: 5'</t>
-  </si>
-  <si>
-    <t>Total H: 11'7" W: 4'8" D: 4'3"</t>
-  </si>
-  <si>
-    <t>Bust H: 4'1 "½"</t>
-  </si>
-  <si>
-    <t>Carrara marble</t>
-  </si>
-  <si>
-    <t>Group---bronze; Pedestal---Swedish red granite (polished)</t>
-  </si>
-  <si>
-    <t>Iron, bronze tab, granite coping</t>
-  </si>
-  <si>
-    <t>Stainless steel</t>
-  </si>
-  <si>
-    <t>Cenotaph, fountain, and benches--Quincy yellow granite; plaques--bronze</t>
-  </si>
-  <si>
-    <t>Cenotaph H: 8'10"; fountain diameter 7'</t>
-  </si>
-  <si>
     <t>533cddb35c9596ef08143de9</t>
   </si>
   <si>
-    <t>56bf982ecd158827a80aef2e</t>
-  </si>
-  <si>
     <t>550d13f2610bf1c45d848977</t>
   </si>
   <si>
-    <t>56c0f9b66e78364115ed8754</t>
-  </si>
-  <si>
-    <t>56b6e8c1cd15882f6492b9ec</t>
-  </si>
-  <si>
-    <t>H: 2'7" L: l 5'</t>
-  </si>
-  <si>
-    <t>H: 3'5" W: 1'x3 "½" D: 1'3 "½"</t>
-  </si>
-  <si>
-    <t>Bronze, natural rock</t>
-  </si>
-  <si>
-    <t>Bronze, cast stone</t>
-  </si>
-  <si>
-    <t>54f7e9f95c95968fe4487997</t>
-  </si>
-  <si>
-    <t>55ee3819f58614cf075b7597</t>
-  </si>
-  <si>
-    <t>56bfd34fcd15882f9c38ccce</t>
-  </si>
-  <si>
-    <t>East Dorset Vermont marble (see memo)</t>
-  </si>
-  <si>
-    <t>Bronze; Westerly granite</t>
-  </si>
-  <si>
-    <t>Total h 80' x w 80' x d 50'; archway h 50' x w 35'</t>
-  </si>
-  <si>
-    <t>H: 100' D: 50'</t>
-  </si>
-  <si>
-    <t>Figure H: 10'9"; Pedestal H: 10' W: 3'6" D: 3'6"</t>
+    <t>533cddb15c9596ef08143da9</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dbc</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dbd</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dcb</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143def</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143df2</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143df7</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143e00</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143e02</t>
+  </si>
+  <si>
+    <t>5505ce0693a2b1e1e52db6b8</t>
+  </si>
+  <si>
+    <t>5505e47393a2b1e1e52db6bc</t>
+  </si>
+  <si>
+    <t>550d11fe610bf1c45d848974</t>
+  </si>
+  <si>
+    <t>550d2420610bf1c45d848984</t>
+  </si>
+  <si>
+    <t>550dca8e610bf1c45d84898c</t>
+  </si>
+  <si>
+    <t>550e6249610bf1c45d8489ab</t>
+  </si>
+  <si>
+    <t>Bronze, Deer Island granite</t>
+  </si>
+  <si>
+    <t>550cda5e610bf1c45d848956</t>
+  </si>
+  <si>
+    <t>550d0e7b610bf1c45d84896b</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dc9</t>
+  </si>
+  <si>
+    <t>Columns and plinths--granite; tripods and bowls--bronze</t>
+  </si>
+  <si>
+    <t>Bronze, marble</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d69</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143db0</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dda</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143de6</t>
+  </si>
+  <si>
+    <t>5506304d93a2b1e1e52db6bf</t>
+  </si>
+  <si>
+    <t>550d0fd1610bf1c45d84896e</t>
+  </si>
+  <si>
+    <t>550de70d610bf1c45d84899b</t>
+  </si>
+  <si>
+    <t>56c5079362a3debc2b358e34</t>
+  </si>
+  <si>
+    <t>5505d69393a2b1e1e52db6ba</t>
+  </si>
+  <si>
+    <t>550e589f610bf1c45d8489a9</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143dae</t>
+  </si>
+  <si>
+    <t>550d0c55610bf1c45d848968</t>
+  </si>
+  <si>
+    <t>H: 12" W: 20" D: "½"</t>
+  </si>
+  <si>
+    <t>56c0008bcd15882fe0c9864b</t>
+  </si>
+  <si>
+    <t>54f7e9f95c95968fe448799a</t>
+  </si>
+  <si>
+    <t>55e62f4cf58614cf075b74cd</t>
+  </si>
+  <si>
+    <t>55e354b2f58614cf075b748e</t>
+  </si>
+  <si>
+    <t>56a55225c60405816fdf8ef9</t>
+  </si>
+  <si>
+    <t>56c5091162a3debc2b358e36</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143db8</t>
+  </si>
+  <si>
+    <t>550cdb8a610bf1c45d848957</t>
+  </si>
+  <si>
+    <t>56b41ae4cd15882dc05a16c6</t>
+  </si>
+  <si>
+    <t>56d0f9e962a3debc2b358f67</t>
+  </si>
+  <si>
+    <t>56b5ac0dcd158817d04f8b8b</t>
+  </si>
+  <si>
+    <t>56b7b9eccd15882d3ca4a1ae</t>
+  </si>
+  <si>
+    <t>55577513083cd88a44265d40</t>
+  </si>
+  <si>
+    <t>56cbdfb662a3debc2b358ee6</t>
+  </si>
+  <si>
+    <t>56b5ac0dcd158817d04f8b8c</t>
+  </si>
+  <si>
+    <t>56b5ba7dcd158824780c9808</t>
+  </si>
+  <si>
+    <t>56cd46fe62a3debc2b358efd</t>
+  </si>
+  <si>
+    <t>55e6562ef58614cf075b74ef</t>
+  </si>
+  <si>
+    <t>56bffc9ecd15882c0c671240</t>
+  </si>
+  <si>
+    <t>6439a8ab4ac6203737fd6e2a</t>
+  </si>
+  <si>
+    <t>56bff3c3cd1588214c06b38a</t>
+  </si>
+  <si>
+    <t>56bfd34fcd15882f9c38cccf</t>
+  </si>
+  <si>
+    <t>56cd4f7462a3debc2b358f09</t>
+  </si>
+  <si>
+    <t>55d00c7dcfb85dbff513691a</t>
+  </si>
+  <si>
+    <t>56bf982ecd158827a80aef2d</t>
+  </si>
+  <si>
+    <t>56bf7b77cd15882bf4d3c148</t>
+  </si>
+  <si>
+    <t>552daa32912913b260eb7679</t>
+  </si>
+  <si>
+    <t>552da756912913b260eb766c</t>
+  </si>
+  <si>
+    <t>552db493912913b260eb768f</t>
+  </si>
+  <si>
+    <t>552db2e8912913b260eb768a</t>
+  </si>
+  <si>
+    <t>552db871912913b260eb769b</t>
+  </si>
+  <si>
+    <t>552da7b2912913b260eb766f</t>
+  </si>
+  <si>
+    <t>552da830912913b260eb7671</t>
+  </si>
+  <si>
+    <t>552db0d8912913b260eb7682</t>
+  </si>
+  <si>
+    <t>552db8d4912913b260eb769d</t>
+  </si>
+  <si>
+    <t>552be7c0912913b260eb763a</t>
+  </si>
+  <si>
+    <t>5528c01a912913b260eb7606</t>
+  </si>
+  <si>
+    <t>55221308610bf1c45d848a46</t>
+  </si>
+  <si>
+    <t>552213bb610bf1c45d848a49</t>
+  </si>
+  <si>
+    <t>552366d5610bf1c45d848a5c</t>
+  </si>
+  <si>
+    <t>55236bfc610bf1c45d848a64</t>
+  </si>
+  <si>
+    <t>55385923083cd88a44265c6d</t>
+  </si>
+  <si>
+    <t>560f6de0f89701aedbaebc4d</t>
+  </si>
+  <si>
+    <t>552596fe912913b260eb75c7</t>
+  </si>
+  <si>
+    <t>55c79136cfb85dbff51368ef</t>
+  </si>
+  <si>
+    <t>55c78d00cfb85dbff51368e7</t>
+  </si>
+  <si>
+    <t>55c790a1cfb85dbff51368ee</t>
+  </si>
+  <si>
+    <t>55c7867ecfb85dbff51368e3</t>
+  </si>
+  <si>
+    <t>55c78476cfb85dbff51368e1</t>
+  </si>
+  <si>
+    <t>56cd496462a3debc2b358f06</t>
+  </si>
+  <si>
+    <t>H: 7'4 "½"</t>
+  </si>
+  <si>
+    <t>Figure H: 6'4"½"; Pedestal H: 5' W: 2'8" D: 3'; Tablet L: 1'6" W: 1'6" (approximate)</t>
+  </si>
+  <si>
+    <t>Beecher figure H: 7'6"; Pedestal H: 7' W: 10' D: 8'5"</t>
+  </si>
+  <si>
+    <t>H: 10' W: 6' D: 2'</t>
+  </si>
+  <si>
+    <t>each panel 2' x 2'; fence l 1500'</t>
+  </si>
+  <si>
+    <t>Obelisk H: 15' W: 10'6" D: 4'5"; base H: 5' W": 10'6" x d 6'; each marker front h 2'6" x rear h 3' x w 3' x d 2'; plaza diameter 50'</t>
+  </si>
+  <si>
+    <t>Total H: 6' W: 12'; Marker front H: 4" Rear H: 1'2" W: 1'8" D: 1'4"</t>
+  </si>
+  <si>
+    <t>H: 2'9" W: 2'7"</t>
+  </si>
+  <si>
+    <t>Figure H: 6' W: 3'6"; Canopy H: 30'</t>
+  </si>
+  <si>
+    <t>Center pylon H: 8'10" W: 6' D: 2'; Proper right pylon H: 8'8" W: 2' D: 2'; Proper left pylon H: 8'10" W: 2' D: 2'; Center plaque H: 3' W: 4'; Each side plaque H: 1' W: 1'6"</t>
+  </si>
+  <si>
+    <t>H: 3'3'" W: 1'8" D: 3' 3"</t>
+  </si>
+  <si>
+    <t>11'6"h x 4'8"w x 11'3"d</t>
+  </si>
+  <si>
+    <t>H: 1'10" W: 17'4" D: 1'8" coping</t>
+  </si>
+  <si>
+    <t>Tablets H: 1'5" W: 2'7"; Base H: 3'7" W: 2'5"</t>
+  </si>
+  <si>
+    <t>H: 5' W: 3'4.5" D: 3'4.5"; Pole D: 7"</t>
+  </si>
+  <si>
+    <t>base h 8' x diameter  5'8";  pedestal w 10'</t>
+  </si>
+  <si>
+    <t>each plaque h 2'7"-8" x w 3'6"-7"; first tier of wall h 4'9"; second tier h 4'8"; third tier h 2'11"</t>
+  </si>
+  <si>
+    <t>12'h x 4'diam</t>
+  </si>
+  <si>
+    <t>Diameter: 38' D: 4'</t>
+  </si>
+  <si>
+    <t>Figure H: 10'; Pedestal H: 5' W: 12' D: 11'; Tablet H: 2'4" W: 2'6"</t>
+  </si>
+  <si>
+    <t>H: 104" W: 6'6" D: 1'6"; 7"step</t>
+  </si>
+  <si>
+    <t>Flagpole Base: 4'10" D x 6' H ; Plaques: 8.5" (top) - 1'5" (bottom) L x 2'4" H</t>
+  </si>
+  <si>
+    <t>Plaque 1 H: 4'6" W: 2'6"; Plaque 2 H: 28 1/2" W: 12"; Plinth H: 10' W: 5'4" D: 2'</t>
+  </si>
+  <si>
+    <t>Obelisk h 40' (?); base l 8' x w 8'; top figure h 10' (?); fence l 40' x w 40'</t>
+  </si>
+  <si>
+    <t>Stele H: 8' W: 3'10" D: 1'1"; Plinth H: 9" W: 6' W: 3'3"</t>
+  </si>
+  <si>
+    <t>Figure H: 7'4" W: 2'1" D: 2'1"; Pedestal  H: 4'  W: 3'5" D: 3'5"</t>
+  </si>
+  <si>
+    <t>1'2"h x 2'4 "½"w</t>
+  </si>
+  <si>
+    <t>7'h, bs. 20"wx20"d, sft.16x16"</t>
+  </si>
+  <si>
+    <t>24"h</t>
+  </si>
+  <si>
+    <t>9'diam,</t>
+  </si>
+  <si>
+    <t>9'diam</t>
+  </si>
+  <si>
+    <t>Column H: 3'1" W: 3' D:1'6"; Pedestal H: 1' W: 5' D: 3'</t>
+  </si>
+  <si>
+    <t>H: 50' W: 17'6" D: 17'6"</t>
+  </si>
+  <si>
+    <t>1'7 "½"h x 1'2 "½"w</t>
+  </si>
+  <si>
+    <t>Bronze, Regal Grey granite</t>
+  </si>
+  <si>
+    <t>Figure--bronze; Pedestal--Westerly granite</t>
+  </si>
+  <si>
+    <t>Figures--bronze; Pedestal--Barre granite (polished)</t>
+  </si>
+  <si>
+    <t>Stele--black granite (polished); Base--limestone; Ornaments--bronze; Lettering--gilded</t>
+  </si>
+  <si>
+    <t>Panels--cast iron; two panels--glass; two running bands--bronze</t>
+  </si>
+  <si>
+    <t>Obelisk and base--Pennsylvania black granite (polished); outline of cutout--stainless steel; mosaic tiles; plaques--stainless steel; markers and plaza paving--Barre gray granite</t>
+  </si>
+  <si>
+    <t>Norwegian coastal boulders; marker--pink granite</t>
+  </si>
+  <si>
+    <t>Bronze, Israel limestone</t>
+  </si>
+  <si>
+    <t>Pylons--Swenson green granite; Crest and plaques--bronze; inscription--gilded</t>
+  </si>
+  <si>
+    <t>Black granite, black marble</t>
+  </si>
+  <si>
+    <t>Westerly and Black Diamond granite</t>
+  </si>
+  <si>
+    <t>Base: Granite, Plaque and seal: Bronze</t>
+  </si>
+  <si>
+    <t>Base--bronze, pedestal--Texas pink granite</t>
+  </si>
+  <si>
+    <t>plaques--bronze; wall--pink granite; table--gray granite</t>
+  </si>
+  <si>
+    <t>Polished granite, bronze plaque</t>
+  </si>
+  <si>
+    <t>Figure--bronze; Pedestal--Deer Isle granite</t>
+  </si>
+  <si>
+    <t>Barre granite, brick</t>
+  </si>
+  <si>
+    <t>Bronze, "Mountain Green" Granite</t>
+  </si>
+  <si>
+    <t>Georgia granite, flagstone, bronze</t>
+  </si>
+  <si>
+    <t>Obelisk, pedestals, and piers--Barre granite; decorations, figures, cannons, and eagles--bronze; fence--iron</t>
+  </si>
+  <si>
+    <t>Granite, light &amp; pol areas, inc. lt</t>
+  </si>
+  <si>
+    <t>Carrara bianco marble</t>
+  </si>
+  <si>
+    <t>Bronze, fieldstone, Indiana Limestone</t>
+  </si>
+  <si>
+    <t>54f7e9f95c95968fe4487996</t>
+  </si>
+  <si>
+    <t>550ce71c610bf1c45d848962</t>
+  </si>
+  <si>
+    <t>550ce6d2610bf1c45d848961</t>
+  </si>
+  <si>
+    <t>550ce693610bf1c45d848960</t>
+  </si>
+  <si>
+    <t>550c95a8610bf1c45d848934</t>
+  </si>
+  <si>
+    <t>550df12e610bf1c45d84899f</t>
+  </si>
+  <si>
+    <t>550d1cb5610bf1c45d84897d</t>
+  </si>
+  <si>
+    <t>550cd389610bf1c45d84894d</t>
+  </si>
+  <si>
+    <t>550e56a5610bf1c45d8489a6</t>
+  </si>
+  <si>
+    <t>5505c9d193a2b1e1e52db6b4</t>
+  </si>
+  <si>
+    <t>550d03d4610bf1c45d848965</t>
+  </si>
+  <si>
+    <t>5505cb9593a2b1e1e52db6b6</t>
+  </si>
+  <si>
+    <t>550cd6d3610bf1c45d848950</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143db1</t>
+  </si>
+  <si>
+    <t>551dd50f610bf1c45d848a04</t>
+  </si>
+  <si>
+    <t>550d22ab610bf1c45d848982</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143de2</t>
+  </si>
+  <si>
+    <t>5506469793a2b1e1e52db6d1</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143dfe</t>
+  </si>
+  <si>
+    <t>533cddaf5c9596ef08143d57</t>
+  </si>
+  <si>
+    <t>533cddaf5c9596ef08143d58</t>
+  </si>
+  <si>
+    <t>533cddaf5c9596ef08143d5c</t>
+  </si>
+  <si>
+    <t>533cddaf5c9596ef08143d5d</t>
+  </si>
+  <si>
+    <t>533cddaf5c9596ef08143d5f</t>
+  </si>
+  <si>
+    <t>533cddaf5c9596ef08143d60</t>
+  </si>
+  <si>
+    <t>550c94ee610bf1c45d848933</t>
+  </si>
+  <si>
+    <t>533cddaf5c9596ef08143d61</t>
+  </si>
+  <si>
+    <t>533cddaf5c9596ef08143d62</t>
+  </si>
+  <si>
+    <t>533cddaf5c9596ef08143d63</t>
+  </si>
+  <si>
+    <t>533cddaf5c9596ef08143d65</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d66</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d67</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d6c</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d6e</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d6f</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d71</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d72</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d73</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d74</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d75</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d77</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d79</t>
+  </si>
+  <si>
+    <t>55b2708df5094cd685a37267</t>
+  </si>
+  <si>
+    <t>550e4822610bf1c45d8489a1</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d7b</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d7c</t>
+  </si>
+  <si>
+    <t>550dd415610bf1c45d848994</t>
+  </si>
+  <si>
+    <t>550dd159610bf1c45d848992</t>
+  </si>
+  <si>
+    <t>550dd2eb610bf1c45d848993</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d7e</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d7f</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d80</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d81</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d86</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d87</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d88</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d89</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d8a</t>
+  </si>
+  <si>
+    <t>533cddb05c9596ef08143d8b</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143d8d</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143d8f</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143d90</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143d91</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143d92</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143d93</t>
+  </si>
+  <si>
+    <t>550dea02610bf1c45d84899d</t>
+  </si>
+  <si>
+    <t>553ba7ac083cd88a44265c94</t>
+  </si>
+  <si>
+    <t>550c9be4610bf1c45d84893b</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143d95</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143d96</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143d97</t>
+  </si>
+  <si>
+    <t>550c9996610bf1c45d84893a</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143d99</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143d9a</t>
+  </si>
+  <si>
+    <t>550e4abc610bf1c45d8489a2</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143d9b</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143d9c</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143d9d</t>
+  </si>
+  <si>
+    <t>550a41c1610bf1c45d848925</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143d9e</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143d9f</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143da0</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143da3</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143da4</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143da5</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143da6</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143da8</t>
+  </si>
+  <si>
+    <t>550ce4fc610bf1c45d84895e</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143daa</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143dab</t>
+  </si>
+  <si>
+    <t>550c988e610bf1c45d848938</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143dac</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143dad</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143db2</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143db4</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143db5</t>
+  </si>
+  <si>
+    <t>533cddb15c9596ef08143db6</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143db9</t>
+  </si>
+  <si>
+    <t>550dd9f8610bf1c45d848996</t>
+  </si>
+  <si>
+    <t>55b296eef5094cd685a3726e</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dba</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dbb</t>
+  </si>
+  <si>
+    <t>550ce441610bf1c45d84895d</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dbe</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dbf</t>
+  </si>
+  <si>
+    <t>550c96eb610bf1c45d848935</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dc0</t>
+  </si>
+  <si>
+    <t>550ce38c610bf1c45d84895c</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dc1</t>
+  </si>
+  <si>
+    <t>550d156c610bf1c45d848979</t>
+  </si>
+  <si>
+    <t>550d1737610bf1c45d84897b</t>
+  </si>
+  <si>
+    <t>550c9787610bf1c45d848936</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dc2</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dc5</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dc6</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dc7</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dc8</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dca</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dcc</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dcd</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dce</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dcf</t>
+  </si>
+  <si>
+    <t>550c990f610bf1c45d848939</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dd0</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dd1</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dd2</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dd3</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dd4</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dd6</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dd7</t>
+  </si>
+  <si>
+    <t>552497d6610bf1c45d848a69</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dd8</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143dd9</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143ddb</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143ddc</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143ddf</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143de0</t>
+  </si>
+  <si>
+    <t>533cddb25c9596ef08143de1</t>
+  </si>
+  <si>
+    <t>550ce2b6610bf1c45d84895b</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143de3</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143de4</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143de5</t>
+  </si>
+  <si>
+    <t>645186063879cf70e53ff05c</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143de8</t>
+  </si>
+  <si>
+    <t>550c9c82610bf1c45d84893c</t>
+  </si>
+  <si>
+    <t>55249341610bf1c45d848a68</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143deb</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143dec</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143ded</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143dee</t>
+  </si>
+  <si>
+    <t>550ce583610bf1c45d84895f</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143df0</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143df3</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143df4</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143df5</t>
+  </si>
+  <si>
+    <t>55249e20610bf1c45d848a6b</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143df6</t>
+  </si>
+  <si>
+    <t>550d1116610bf1c45d848970</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143dfa</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143dfb</t>
+  </si>
+  <si>
+    <t>550ce26e610bf1c45d84895a</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143dfd</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143dff</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143e03</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143e04</t>
+  </si>
+  <si>
+    <t>550daa5e610bf1c45d84898a</t>
+  </si>
+  <si>
+    <t>533cddb35c9596ef08143e06</t>
+  </si>
+  <si>
+    <t>550c9844610bf1c45d848937</t>
+  </si>
+  <si>
+    <t>550ce236610bf1c45d848959</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +2099,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1238,6 +2136,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1248,15 +2151,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -1267,10 +2171,13 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5"/>
+    <xf numFmtId="11" fontId="4" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent4" xfId="2" builtinId="41"/>
+    <cellStyle name="Accent5" xfId="6" builtinId="45"/>
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28"/>
@@ -1290,8 +2197,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA414B77-A9E5-4D2D-94BC-0F477EABC592}" name="Table1" displayName="Table1" ref="A1:C23" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:C23" xr:uid="{CA414B77-A9E5-4D2D-94BC-0F477EABC592}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA414B77-A9E5-4D2D-94BC-0F477EABC592}" name="Table1" displayName="Table1" ref="A1:C66" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:C66" xr:uid="{CA414B77-A9E5-4D2D-94BC-0F477EABC592}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7861B252-1B9F-4388-BE08-3DC81B82F179}" name="Dimensions" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{AB21377B-C7AB-4DAF-B174-748ECF4B59CD}" name="Materials" dataCellStyle="Normal"/>
@@ -1597,11 +2504,2507 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E35AD9-3ED2-499D-983E-C1E37B674B88}">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97791A3-A660-4D61-82CE-EDD80E9419D8}">
+  <dimension ref="A1:C225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B236" sqref="B236"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>53</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>53</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>53</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>53</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>53</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>53</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>53</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>53</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>53</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>53</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>53</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>53</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
+        <v>53</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>53</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>53</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>53</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>53</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>53</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>53</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>53</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>53</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>53</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" t="s">
+        <v>53</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>53</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>53</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>53</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>53</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>53</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>53</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>53</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" t="s">
+        <v>53</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>53</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>53</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>53</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>53</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>53</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>53</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>53</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" t="s">
+        <v>53</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>53</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>53</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>53</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>53</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
+        <v>53</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>53</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" t="s">
+        <v>53</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" t="s">
+        <v>53</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>53</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>53</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" t="s">
+        <v>53</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>53</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" t="s">
+        <v>53</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" t="s">
+        <v>53</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" t="s">
+        <v>53</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" t="s">
+        <v>53</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" t="s">
+        <v>53</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" t="s">
+        <v>53</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>4</v>
+      </c>
+      <c r="B184" t="s">
+        <v>53</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" t="s">
+        <v>53</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186" t="s">
+        <v>53</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" t="s">
+        <v>53</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>4</v>
+      </c>
+      <c r="B188" t="s">
+        <v>53</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" t="s">
+        <v>53</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" t="s">
+        <v>53</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" t="s">
+        <v>53</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" t="s">
+        <v>53</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" t="s">
+        <v>53</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" t="s">
+        <v>53</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" t="s">
+        <v>53</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" t="s">
+        <v>53</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" t="s">
+        <v>53</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B198" t="s">
+        <v>53</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B199" t="s">
+        <v>53</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B200" t="s">
+        <v>53</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" t="s">
+        <v>53</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" t="s">
+        <v>53</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B203" t="s">
+        <v>53</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B204" t="s">
+        <v>53</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>4</v>
+      </c>
+      <c r="B205" t="s">
+        <v>53</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B206" t="s">
+        <v>53</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>4</v>
+      </c>
+      <c r="B207" t="s">
+        <v>53</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B208" t="s">
+        <v>53</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" t="s">
+        <v>53</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" t="s">
+        <v>53</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211" t="s">
+        <v>53</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B212" t="s">
+        <v>53</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" t="s">
+        <v>53</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" t="s">
+        <v>53</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B215" t="s">
+        <v>53</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B216" t="s">
+        <v>53</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" t="s">
+        <v>53</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" t="s">
+        <v>53</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" t="s">
+        <v>53</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" t="s">
+        <v>53</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221" t="s">
+        <v>53</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>4</v>
+      </c>
+      <c r="B222" t="s">
+        <v>53</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223" t="s">
+        <v>53</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B224" t="s">
+        <v>53</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>4</v>
+      </c>
+      <c r="B225" t="s">
+        <v>53</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E35AD9-3ED2-499D-983E-C1E37B674B88}">
+  <dimension ref="A1:C66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,7 +5016,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>318</v>
@@ -1623,219 +5026,585 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="B2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>326</v>
+      <c r="B2" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>340</v>
+      <c r="A3" t="s">
+        <v>441</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>327</v>
+        <v>475</v>
+      </c>
+      <c r="C3" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>341</v>
+      <c r="A4" t="s">
+        <v>442</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>328</v>
+        <v>476</v>
+      </c>
+      <c r="C4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
       <c r="B5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>329</v>
+        <v>477</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" t="s">
+        <v>444</v>
+      </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>478</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>330</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>342</v>
+      <c r="A7" t="s">
+        <v>448</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>482</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>331</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" t="s">
+        <v>446</v>
+      </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>480</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>332</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" t="s">
+        <v>447</v>
+      </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>481</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>333</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>343</v>
+      <c r="A10" t="s">
+        <v>445</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>479</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>334</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" t="s">
-        <v>348</v>
-      </c>
+      <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" t="s">
-        <v>348</v>
-      </c>
+      <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" t="s">
-        <v>348</v>
-      </c>
+      <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="B14" t="s">
-        <v>323</v>
-      </c>
       <c r="C14" s="8" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>449</v>
       </c>
       <c r="B15" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>356</v>
+        <v>451</v>
       </c>
       <c r="B16" t="s">
-        <v>358</v>
+        <v>484</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>450</v>
+      </c>
       <c r="B17" t="s">
+        <v>483</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>319</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>357</v>
-      </c>
-      <c r="B18" t="s">
-        <v>359</v>
-      </c>
       <c r="C18" s="8" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>452</v>
+      </c>
+      <c r="B19" t="s">
+        <v>485</v>
+      </c>
       <c r="C19" s="8" t="s">
-        <v>354</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>390</v>
+      </c>
       <c r="B20" t="s">
         <v>320</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>355</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>365</v>
+        <v>453</v>
       </c>
       <c r="B21" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>366</v>
+        <v>454</v>
       </c>
       <c r="B22" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>367</v>
+        <v>455</v>
       </c>
       <c r="B23" t="s">
-        <v>364</v>
+        <v>486</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>362</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>456</v>
+      </c>
+      <c r="B24" t="s">
+        <v>487</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>457</v>
+      </c>
+      <c r="B25" t="s">
+        <v>488</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>458</v>
+      </c>
+      <c r="B26" t="s">
+        <v>489</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>459</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>460</v>
+      </c>
+      <c r="B29" t="s">
+        <v>490</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>461</v>
+      </c>
+      <c r="B30" t="s">
+        <v>491</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>462</v>
+      </c>
+      <c r="B31" t="s">
+        <v>492</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>493</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>463</v>
+      </c>
+      <c r="B33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>464</v>
+      </c>
+      <c r="B34" t="s">
+        <v>494</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>466</v>
+      </c>
+      <c r="B36" t="s">
+        <v>342</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>467</v>
+      </c>
+      <c r="B37" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>468</v>
+      </c>
+      <c r="B39" t="s">
+        <v>495</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>332</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>332</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>472</v>
+      </c>
+      <c r="B45" t="s">
+        <v>496</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>332</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>332</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>332</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>470</v>
+      </c>
+      <c r="B56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>471</v>
+      </c>
+      <c r="B57" t="s">
+        <v>343</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>343</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>473</v>
+      </c>
+      <c r="B60" t="s">
+        <v>497</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>469</v>
+      </c>
+      <c r="B62" t="s">
+        <v>323</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -1848,7 +5617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4DC45D-6B51-4A37-976F-C08B9F0C20BF}">
   <dimension ref="A1:H105"/>
   <sheetViews>
@@ -4603,7 +8372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BF778B-8F2D-4C7D-91A8-51A2D3919806}">
   <dimension ref="A2:H11"/>
   <sheetViews>
